--- a/Excel_Spreadsheets/Sites.xlsx
+++ b/Excel_Spreadsheets/Sites.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -337,6 +346,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
